--- a/original.xlsx
+++ b/original.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharovang\Desktop\Мои папки\План факт 20 и 25\Planning 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="3IBNh4oyw2/ixgqEdfV+x86pxsLTiTNH/hYCPN0LTL3kAUanlg4ruJ2E144cyBNyoicvTfeZvwuWc3etMTt/qA==" workbookSaltValue="jljz+bqXrQNRCx1G8Nl+eQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" tabRatio="789" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Дюрация" sheetId="6" r:id="rId1"/>
+    <sheet name="Дюрация" sheetId="6" state="hidden" r:id="rId1"/>
     <sheet name="ФОРМА СКБСЖ" sheetId="16" r:id="rId2"/>
     <sheet name="Свод" sheetId="19" r:id="rId3"/>
     <sheet name="Каналы" sheetId="17" r:id="rId4"/>
     <sheet name="Регионы" sheetId="18" r:id="rId5"/>
-    <sheet name="спр" sheetId="27" r:id="rId6"/>
+    <sheet name="спр" sheetId="27" state="hidden" r:id="rId6"/>
     <sheet name="ЛБ" sheetId="15" r:id="rId7"/>
   </sheets>
   <externalReferences>
@@ -980,7 +981,7 @@
     <pivotCache cacheId="1" r:id="rId33"/>
   </pivotCaches>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32775,6 +32776,7 @@
       <c r="AZ161" s="47"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="GFBgZFHY1hMsnU2K8tpIj0Os74RL7HmosgYsQo2HFqIHzYHkz0T3xttuQebVdMMOJkb9OwqNQiRxGop+VGy2Fw==" saltValue="m5Bbcr4OCpKGVEMI2oLhjg==" spinCount="100000" sheet="1" formatColumns="0" formatRows="0" autoFilter="0"/>
   <autoFilter ref="A5:BC161"/>
   <mergeCells count="8">
     <mergeCell ref="AX4:AZ4"/>
@@ -38963,6 +38965,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="BC4crqhJJgLt23wcBc20nX+QvsPOvGNXXoyemZQur/a2JkuOyjL6TLl0EsgjkSt+xOMRKIpWF/hmrli9yQMHLA==" saltValue="DQOZ3M7WJrYQdpk4DM27Og==" spinCount="100000" sheet="1" formatColumns="0" formatRows="0" autoFilter="0"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F18">
       <formula1>$B$3:$B$91</formula1>
@@ -40703,6 +40706,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="+BNtwsyHdteBa1mCMuzdJ0AQLexwR9uOr4LPjiklcBH2D+LNOMwCsYh1luJzANGM8LXh+8A9PczfzDvpliX5oA==" saltValue="xBrN81aOXUZD+k7NGvIYCQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="B3:C54"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
